--- a/liensMagasinES.xlsx
+++ b/liensMagasinES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2820DE1-9D01-4616-AAD4-F6049C0198B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE0AC22-4806-47E7-A479-553B7F1B9A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54495" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
   <si>
     <t>Rendez-Vous</t>
   </si>
@@ -493,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
     <col min="4" max="4" width="107.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -519,7 +519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -531,13 +531,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -549,7 +549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -561,13 +561,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -579,13 +579,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -597,13 +597,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -613,9 +613,14 @@
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -625,9 +630,14 @@
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -637,9 +647,14 @@
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -653,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -665,7 +680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -857,7 +872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -871,13 +886,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -891,7 +906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -905,7 +920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
@@ -919,13 +934,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
@@ -939,7 +954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
@@ -951,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>30</v>
       </c>
@@ -963,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>30</v>
       </c>
@@ -975,7 +990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
@@ -987,7 +1002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>30</v>
       </c>
@@ -999,7 +1014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
@@ -1009,9 +1024,14 @@
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>30</v>
       </c>
@@ -1021,9 +1041,14 @@
       <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>30</v>
       </c>
@@ -1037,7 +1062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
@@ -1188,7 +1213,12 @@
       <c r="C59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>

--- a/liensMagasinES.xlsx
+++ b/liensMagasinES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE0AC22-4806-47E7-A479-553B7F1B9A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBE67AF-17DD-4F3E-84F7-2F55D5BEE166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
   <si>
     <t>Rendez-Vous</t>
   </si>
@@ -50,12 +50,6 @@
     <t>https://vipiisxen02.kiabi.fr/Citrix/KiabiDesktopsWeb/</t>
   </si>
   <si>
-    <t>K'IAM</t>
-  </si>
-  <si>
-    <t>https://iamuaprod.kiabi.fr/idmdash</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -BackOffice-</t>
   </si>
   <si>
@@ -74,12 +68,6 @@
     <t xml:space="preserve"> -Ressources Humaines</t>
   </si>
   <si>
-    <t>SRMARTRH</t>
-  </si>
-  <si>
-    <t>https://myapps.kiabi.fr/idp/startSSO.ping?PartnerSpId=smarta090sso&amp;LoginForm=true</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -Kiabi-</t>
   </si>
   <si>
@@ -89,12 +77,6 @@
     <t>https://kiabi.octoplus.frequentiel.com/OctoplusTracker</t>
   </si>
   <si>
-    <t>Yoobic</t>
-  </si>
-  <si>
-    <t>https://app-web.yoobic.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -Citrix-</t>
   </si>
   <si>
@@ -146,12 +128,6 @@
     <t>https://signon.storedvalue.com/portal</t>
   </si>
   <si>
-    <t>Easy-IT</t>
-  </si>
-  <si>
-    <t>https://kiabi-easy-it.saasiteu.com/</t>
-  </si>
-  <si>
     <t>Indicadores tienda</t>
   </si>
   <si>
@@ -191,13 +167,7 @@
     <t>https://net-entreprises.fr/</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>TalendEd</t>
-  </si>
-  <si>
-    <t>https://talented.gcp.kiabi.pro</t>
+    <t xml:space="preserve"> -Ressources Humaine-</t>
   </si>
 </sst>
 </file>
@@ -494,7 +464,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -507,21 +477,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -539,27 +509,21 @@
     </row>
     <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -569,14 +533,14 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -587,14 +551,14 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -605,129 +569,123 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -738,53 +696,45 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -794,10 +744,10 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>0</v>
@@ -820,10 +770,10 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>2</v>
@@ -834,50 +784,44 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>0</v>
@@ -894,10 +838,10 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>2</v>
@@ -908,31 +852,23 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -942,21 +878,21 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
@@ -968,7 +904,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
@@ -980,129 +916,123 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C48" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
@@ -1114,110 +1044,84 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A55" s="2"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,9 +1134,8 @@
     <hyperlink ref="D16" r:id="rId3" xr:uid="{7183561B-2BE4-4853-9D28-6606637F164A}"/>
     <hyperlink ref="D17" r:id="rId4" xr:uid="{DB6A28BD-0B0E-410A-85AC-2A6A9D370128}"/>
     <hyperlink ref="D39" r:id="rId5" xr:uid="{F952FA00-5AF8-4D86-B36B-EA32F331AFA4}"/>
-    <hyperlink ref="D58" r:id="rId6" xr:uid="{5A75FE2B-9BDE-4456-9DBA-27B8F7B125FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>